--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/114.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/114.xlsx
@@ -479,13 +479,13 @@
         <v>-0.153657222995588</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.042882313946652</v>
+        <v>-1.971713039377041</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07872523922125432</v>
+        <v>-0.08195512645816333</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3862791314086809</v>
+        <v>-0.3580081739709993</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1610156053259003</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.052001393725908</v>
+        <v>-1.975999880453904</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0299227763653265</v>
+        <v>-0.04701662402265197</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.369800725227784</v>
+        <v>-0.3379331340979303</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1717693829588582</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.103899952193434</v>
+        <v>-2.020498975032195</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0829155064024772</v>
+        <v>0.0527053574073531</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4446138540632057</v>
+        <v>-0.4035760275326541</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1787536258089945</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.266152991255351</v>
+        <v>-2.172040813973662</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2497064425911046</v>
+        <v>0.1997108732412309</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5067057603602753</v>
+        <v>-0.4582181013286076</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1751225503928754</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.045404679588536</v>
+        <v>-1.978781959250803</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4827604357482483</v>
+        <v>0.4127417691563085</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5646343860815044</v>
+        <v>-0.5081396917797801</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1563428975596484</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.905675067142871</v>
+        <v>-1.839030310537439</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6739502423361576</v>
+        <v>0.5845569743801277</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5756352057202749</v>
+        <v>-0.5167369842203245</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1260133025968698</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.52488993533693</v>
+        <v>-1.475635728993189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9511869522282117</v>
+        <v>0.8360411574285812</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.608503873011276</v>
+        <v>-0.5397475697546192</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09425875187753545</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.002271514529705</v>
+        <v>-0.9620962504776264</v>
       </c>
       <c r="F9" t="n">
-        <v>1.176939070681642</v>
+        <v>1.029716340209024</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5911865146387257</v>
+        <v>-0.5160444158069523</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.0693827140075106</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4249732434676157</v>
+        <v>-0.3717226025748921</v>
       </c>
       <c r="F10" t="n">
-        <v>1.266972964420041</v>
+        <v>1.094762680396775</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.5472745291926792</v>
+        <v>-0.4715563393625096</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.05273085627751539</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2692872404600851</v>
+        <v>0.3188294923030243</v>
       </c>
       <c r="F11" t="n">
-        <v>1.232347691789668</v>
+        <v>1.058431171038913</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4729383281510116</v>
+        <v>-0.396900612439218</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03863410538257694</v>
       </c>
       <c r="E12" t="n">
-        <v>1.058212382381052</v>
+        <v>1.105155928654724</v>
       </c>
       <c r="F12" t="n">
-        <v>1.243433508460989</v>
+        <v>1.065169546897201</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3291202010377677</v>
+        <v>-0.2634993438707421</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0158756071920642</v>
       </c>
       <c r="E13" t="n">
-        <v>1.943991642893014</v>
+        <v>1.979632157856626</v>
       </c>
       <c r="F13" t="n">
-        <v>1.057408058610067</v>
+        <v>0.8830523865244688</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1563684544367747</v>
+        <v>-0.09484162100425207</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.02559577322001541</v>
       </c>
       <c r="E14" t="n">
-        <v>2.853818767540208</v>
+        <v>2.86897184962097</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8627129114390214</v>
+        <v>0.689493681159002</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02121080880924764</v>
+        <v>0.07726320373788644</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.09057796913605105</v>
       </c>
       <c r="E15" t="n">
-        <v>3.879300095163213</v>
+        <v>3.87279782217312</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6855019686673834</v>
+        <v>0.510612704099664</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2102583753730667</v>
+        <v>0.2648957271116562</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1746025836193504</v>
       </c>
       <c r="E16" t="n">
-        <v>4.784482289383448</v>
+        <v>4.758984753637498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4583001786032356</v>
+        <v>0.2788698688705638</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4602220559503438</v>
+        <v>0.5038869203943461</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2658584392393223</v>
       </c>
       <c r="E17" t="n">
-        <v>5.605479644920038</v>
+        <v>5.556759031058418</v>
       </c>
       <c r="F17" t="n">
-        <v>0.296601194272016</v>
+        <v>0.116934781671149</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6991298262196047</v>
+        <v>0.7394735103176627</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3596230191388134</v>
       </c>
       <c r="E18" t="n">
-        <v>6.445772900864653</v>
+        <v>6.362839407382441</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05905022848531618</v>
+        <v>-0.1208648791367163</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8380385876935118</v>
+        <v>0.8774913769689136</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4597159794695464</v>
       </c>
       <c r="E19" t="n">
-        <v>7.04943756622765</v>
+        <v>6.956427202330871</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2191907056061277</v>
+        <v>-0.3955044574786242</v>
       </c>
       <c r="G19" t="n">
-        <v>1.093876507631483</v>
+        <v>1.129373786855056</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5706261343579418</v>
       </c>
       <c r="E20" t="n">
-        <v>7.621842211841615</v>
+        <v>7.497079160210838</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4918706301420163</v>
+        <v>-0.6690249082252874</v>
       </c>
       <c r="G20" t="n">
-        <v>1.322383159547189</v>
+        <v>1.350175615171995</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6921953497441632</v>
       </c>
       <c r="E21" t="n">
-        <v>7.941290966528711</v>
+        <v>7.822863341861169</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.8205179525739934</v>
+        <v>-0.9829590869209063</v>
       </c>
       <c r="G21" t="n">
-        <v>1.553930816405248</v>
+        <v>1.571677881997913</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8181646154227348</v>
       </c>
       <c r="E22" t="n">
-        <v>8.153221623078</v>
+        <v>8.046454332061053</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.052533093111079</v>
+        <v>-1.198473785009396</v>
       </c>
       <c r="G22" t="n">
-        <v>1.799905932529149</v>
+        <v>1.805035660845468</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9406704122907832</v>
       </c>
       <c r="E23" t="n">
-        <v>8.332508697070633</v>
+        <v>8.224008411001135</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.267143517214382</v>
+        <v>-1.409886589267777</v>
       </c>
       <c r="G23" t="n">
-        <v>1.979109583508354</v>
+        <v>1.967926177651512</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.055439400458603</v>
       </c>
       <c r="E24" t="n">
-        <v>8.420146933706413</v>
+        <v>8.318951670378871</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.46118859448833</v>
+        <v>-1.590325845257203</v>
       </c>
       <c r="G24" t="n">
-        <v>2.103397281364499</v>
+        <v>2.082587174561782</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.158858654146531</v>
       </c>
       <c r="E25" t="n">
-        <v>8.435425937316879</v>
+        <v>8.33278257639774</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.614971836658529</v>
+        <v>-1.732096173493634</v>
       </c>
       <c r="G25" t="n">
-        <v>2.198194156963954</v>
+        <v>2.17956564066336</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.24948344059633</v>
       </c>
       <c r="E26" t="n">
-        <v>8.390652963411481</v>
+        <v>8.296375514122055</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.76038365813209</v>
+        <v>-1.866248249182971</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24618442595329</v>
+        <v>2.222734689084153</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.326531222522833</v>
       </c>
       <c r="E27" t="n">
-        <v>8.331687059089314</v>
+        <v>8.229536366155143</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.837716004571153</v>
+        <v>-1.932844998205203</v>
       </c>
       <c r="G27" t="n">
-        <v>2.323314510935267</v>
+        <v>2.28646987134386</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.387142771334412</v>
       </c>
       <c r="E28" t="n">
-        <v>8.22369990325336</v>
+        <v>8.123370350442531</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.868432987723336</v>
+        <v>-1.955843778596088</v>
       </c>
       <c r="G28" t="n">
-        <v>2.321282452249668</v>
+        <v>2.279884175340338</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.428867669778227</v>
       </c>
       <c r="E29" t="n">
-        <v>8.050625482732499</v>
+        <v>7.954265606145593</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.834587641567568</v>
+        <v>-1.910668642805197</v>
       </c>
       <c r="G29" t="n">
-        <v>2.280782940258601</v>
+        <v>2.236811142085945</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.450481686477521</v>
       </c>
       <c r="E30" t="n">
-        <v>7.816641244274667</v>
+        <v>7.721112449783807</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.813961695002044</v>
+        <v>-1.890313427528537</v>
       </c>
       <c r="G30" t="n">
-        <v>2.185137668352765</v>
+        <v>2.137806913375253</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.452915120849108</v>
       </c>
       <c r="E31" t="n">
-        <v>7.597822680050567</v>
+        <v>7.495766428263673</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.774763109814732</v>
+        <v>-1.844942326357045</v>
       </c>
       <c r="G31" t="n">
-        <v>2.139928691150766</v>
+        <v>2.087416265225932</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.437778485401167</v>
       </c>
       <c r="E32" t="n">
-        <v>7.418031919939117</v>
+        <v>7.306079809936605</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.694204024177002</v>
+        <v>-1.763042963437527</v>
       </c>
       <c r="G32" t="n">
-        <v>2.057823131726359</v>
+        <v>2.009006502698339</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.406806237262122</v>
       </c>
       <c r="E33" t="n">
-        <v>7.110298589571862</v>
+        <v>6.994915117884915</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.658951504926791</v>
+        <v>-1.722682752138696</v>
       </c>
       <c r="G33" t="n">
-        <v>1.936467831493197</v>
+        <v>1.893333411493073</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.361569499515472</v>
       </c>
       <c r="E34" t="n">
-        <v>6.804435193920712</v>
+        <v>6.694581251406895</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.582787867685294</v>
+        <v>-1.653802888381017</v>
       </c>
       <c r="G34" t="n">
-        <v>1.848920887966452</v>
+        <v>1.807862599187324</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.304278232999624</v>
       </c>
       <c r="E35" t="n">
-        <v>6.47785141055676</v>
+        <v>6.355636695883368</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.606129784244622</v>
+        <v>-1.669895659877195</v>
       </c>
       <c r="G35" t="n">
-        <v>1.707581840969257</v>
+        <v>1.673526363260796</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.23808912910987</v>
       </c>
       <c r="E36" t="n">
-        <v>6.103474110593635</v>
+        <v>5.977006396254488</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.624005132395673</v>
+        <v>-1.679907995507789</v>
       </c>
       <c r="G36" t="n">
-        <v>1.615627643902871</v>
+        <v>1.584151983534221</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.165649246409141</v>
       </c>
       <c r="E37" t="n">
-        <v>5.70623890495098</v>
+        <v>5.578194023452291</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.600035969216507</v>
+        <v>-1.656339420194993</v>
       </c>
       <c r="G37" t="n">
-        <v>1.482105175862055</v>
+        <v>1.456233023565236</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.089423778454682</v>
       </c>
       <c r="E38" t="n">
-        <v>5.363787434825196</v>
+        <v>5.236080967437586</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.615369276486657</v>
+        <v>-1.66265281089053</v>
       </c>
       <c r="G38" t="n">
-        <v>1.377876777687766</v>
+        <v>1.350748558132149</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.011958780488021</v>
       </c>
       <c r="E39" t="n">
-        <v>5.001490731618053</v>
+        <v>4.86783919400929</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.634997294929277</v>
+        <v>-1.673697703064697</v>
       </c>
       <c r="G39" t="n">
-        <v>1.290205486650439</v>
+        <v>1.264360092678682</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9347216379975428</v>
       </c>
       <c r="E40" t="n">
-        <v>4.627595081506045</v>
+        <v>4.498094232320152</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.662966040695669</v>
+        <v>-1.698611277716644</v>
       </c>
       <c r="G40" t="n">
-        <v>1.231557534190775</v>
+        <v>1.203459718856437</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.85847362597304</v>
       </c>
       <c r="E41" t="n">
-        <v>4.316795561890496</v>
+        <v>4.184075843601543</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.737024427362427</v>
+        <v>-1.766815887271285</v>
       </c>
       <c r="G41" t="n">
-        <v>1.178701972097498</v>
+        <v>1.148647650995383</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7832216391691671</v>
       </c>
       <c r="E42" t="n">
-        <v>3.899416059533436</v>
+        <v>3.770366953835356</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.746234013241157</v>
+        <v>-1.765948602735448</v>
       </c>
       <c r="G42" t="n">
-        <v>1.100715620713534</v>
+        <v>1.070900550517857</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7076422554728812</v>
       </c>
       <c r="E43" t="n">
-        <v>3.599033398462655</v>
+        <v>3.477665506076522</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.759435311611506</v>
+        <v>-1.77303011476218</v>
       </c>
       <c r="G43" t="n">
-        <v>1.018422753013692</v>
+        <v>0.9877939149323018</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6320921116859118</v>
       </c>
       <c r="E44" t="n">
-        <v>3.303717504943341</v>
+        <v>3.185922635962561</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.792742343227789</v>
+        <v>-1.796947335310344</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9221274112107584</v>
+        <v>0.8925059453670008</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5571485432660686</v>
       </c>
       <c r="E45" t="n">
-        <v>3.049892755461513</v>
+        <v>2.929157618762144</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.784726650852565</v>
+        <v>-1.783247072878543</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8669060983781663</v>
+        <v>0.8370563997618201</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4826066141146226</v>
       </c>
       <c r="E46" t="n">
-        <v>2.84602737288977</v>
+        <v>2.715508133332395</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.737589500226974</v>
+        <v>-1.733353027761993</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8022926134487731</v>
+        <v>0.7722020899068679</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4097931639076204</v>
       </c>
       <c r="E47" t="n">
-        <v>2.578143484616484</v>
+        <v>2.461022295819622</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.715517030088974</v>
+        <v>-1.705745519383939</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7160127553146759</v>
+        <v>0.6891820253729845</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3392710103185001</v>
       </c>
       <c r="E48" t="n">
-        <v>2.382669197980394</v>
+        <v>2.264924697611496</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.637400822127503</v>
+        <v>-1.621784191415518</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6231456271579354</v>
+        <v>0.5913221085634781</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2738343584082489</v>
       </c>
       <c r="E49" t="n">
-        <v>2.205200116072863</v>
+        <v>2.08858733545218</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.59275534377093</v>
+        <v>-1.577812393242862</v>
       </c>
       <c r="G49" t="n">
-        <v>0.58804500075293</v>
+        <v>0.5562340743114431</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2154252003422649</v>
       </c>
       <c r="E50" t="n">
-        <v>2.10931716727971</v>
+        <v>1.990497611850964</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.521652178004414</v>
+        <v>-1.503645399256734</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5208296622160268</v>
+        <v>0.4890879926158771</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.163530175966516</v>
       </c>
       <c r="E51" t="n">
-        <v>1.942079209660634</v>
+        <v>1.81903970896768</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.510443587841632</v>
+        <v>-1.48829556478581</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4544312396030785</v>
+        <v>0.4234687094679727</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1172148847567869</v>
       </c>
       <c r="E52" t="n">
-        <v>1.796743728114456</v>
+        <v>1.672951846281521</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.456521627793674</v>
+        <v>-1.442033568791662</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3916137104910894</v>
+        <v>0.3643501252910402</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.07554007418198228</v>
       </c>
       <c r="E53" t="n">
-        <v>1.712264547855127</v>
+        <v>1.592980656785597</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.403755784790311</v>
+        <v>-1.391263582034108</v>
       </c>
       <c r="G53" t="n">
-        <v>0.357303241684977</v>
+        <v>0.3312123007302968</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.03744343935943327</v>
       </c>
       <c r="E54" t="n">
-        <v>1.609714054064144</v>
+        <v>1.48442213200861</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.308095559702822</v>
+        <v>-1.301771937882997</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3174711138013418</v>
+        <v>0.2894016308111866</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.002763547556065313</v>
       </c>
       <c r="E55" t="n">
-        <v>1.479681186415252</v>
+        <v>1.356289105439127</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.275752614798336</v>
+        <v>-1.269086643819627</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2754448032626134</v>
+        <v>0.2490862790573121</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.02876023768889403</v>
       </c>
       <c r="E56" t="n">
-        <v>1.434549336150197</v>
+        <v>1.310442650493002</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.252954521845417</v>
+        <v>-1.24581949316856</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2562134376385616</v>
+        <v>0.2290663298534887</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.05728887746348423</v>
       </c>
       <c r="E57" t="n">
-        <v>1.383111965285212</v>
+        <v>1.251243791340883</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.227997661667633</v>
+        <v>-1.222998576938382</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2053301215042743</v>
+        <v>0.1824486055379262</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.08295268809237559</v>
       </c>
       <c r="E58" t="n">
-        <v>1.289840314214297</v>
+        <v>1.164249328525715</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.24079679815249</v>
+        <v>-1.232902305249606</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1942584710050453</v>
+        <v>0.1692709174543968</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1065497877077161</v>
       </c>
       <c r="E59" t="n">
-        <v>1.233764308998839</v>
+        <v>1.11422700085078</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.260622355994833</v>
+        <v>-1.248064044435535</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1881339626040643</v>
+        <v>0.1601935491818558</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1294178252766845</v>
       </c>
       <c r="E60" t="n">
-        <v>1.171030202900279</v>
+        <v>1.050957728250977</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.256917901992852</v>
+        <v>-1.245836020369334</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1510626642591905</v>
+        <v>0.1244286867076616</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1520370122492054</v>
       </c>
       <c r="E61" t="n">
-        <v>1.153830895961826</v>
+        <v>1.03015863958211</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.26282126070729</v>
+        <v>-1.247402956404589</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1400083279702957</v>
+        <v>0.114134601654355</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1752104301863443</v>
       </c>
       <c r="E62" t="n">
-        <v>1.087388400813482</v>
+        <v>0.9687703198322617</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.25810156437207</v>
+        <v>-1.247997935632441</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1336697529688179</v>
+        <v>0.1106827777213426</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1996866145986687</v>
       </c>
       <c r="E63" t="n">
-        <v>1.036111579898869</v>
+        <v>0.9208807880666883</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.322412050620613</v>
+        <v>-1.304706696534662</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1021484460456503</v>
+        <v>0.07783299865979729</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2259788032903436</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9714036538221977</v>
+        <v>0.858853416553592</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.340091433391062</v>
+        <v>-1.324658962916269</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07768661488151632</v>
+        <v>0.05531035905310575</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.254658658929207</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9302304616472143</v>
+        <v>0.8178990130364695</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.394850771611552</v>
+        <v>-1.376739320592306</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02799010916468971</v>
+        <v>0.01071210127017206</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2847898917195804</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8762667900925416</v>
+        <v>0.7642170909045095</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.45327363933687</v>
+        <v>-1.429184850704484</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.006062220505529374</v>
+        <v>-0.02173158085807772</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3154263239010827</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8108049088567673</v>
+        <v>0.7097009386382602</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.54100867814861</v>
+        <v>-1.507951128563052</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.03811869392993918</v>
+        <v>-0.05358028375847584</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3458061133309897</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7422925785639123</v>
+        <v>0.6556019014391555</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.590262884492351</v>
+        <v>-1.56074687792972</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06326994546920287</v>
+        <v>-0.07734482445187363</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3744885257461076</v>
       </c>
       <c r="E69" t="n">
-        <v>0.649840991455195</v>
+        <v>0.573612819429724</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.616811865011329</v>
+        <v>-1.590420286404481</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07029321878844653</v>
+        <v>-0.08236751946794411</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3999448196534683</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5381800749901242</v>
+        <v>0.4729133721253912</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.702580953940565</v>
+        <v>-1.672596676689347</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1031996625383587</v>
+        <v>-0.1125855385586747</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4207391582887387</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3895989660158245</v>
+        <v>0.3405745664637933</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.767706782093941</v>
+        <v>-1.738045965772151</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1292040324413674</v>
+        <v>-0.1353977976836856</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4357643693386836</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2694084399324253</v>
+        <v>0.2291702151154945</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.883231915501805</v>
+        <v>-1.842907906642763</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1535493861905251</v>
+        <v>-0.1574891560511407</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4443128003166538</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1615456316070531</v>
+        <v>0.1329126497714722</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.981231920013107</v>
+        <v>-1.933823251089091</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1812442526298107</v>
+        <v>-0.1849243093354117</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4456514028167134</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02208911147893343</v>
+        <v>0.001482053142864823</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.02011727539528</v>
+        <v>-1.96723338095782</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2140609772898088</v>
+        <v>-0.2140232008308975</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4398404375143605</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.05839678226965594</v>
+        <v>-0.07176020460949878</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.112028973945391</v>
+        <v>-2.053340096988574</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.250501093967041</v>
+        <v>-0.2471799136210965</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4275526590071258</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1525341438572862</v>
+        <v>-0.1542797310628087</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.127574773796917</v>
+        <v>-2.077016492611178</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2669023732109941</v>
+        <v>-0.2610344299267852</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4100414607696084</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2519271552909394</v>
+        <v>-0.2391398239494926</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.149550441758957</v>
+        <v>-2.099314834493085</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2865823342846167</v>
+        <v>-0.2778748605055812</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3888561568150369</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3042270886343973</v>
+        <v>-0.2793686046516956</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.10418563666395</v>
+        <v>-2.054659125012224</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2656935265258352</v>
+        <v>-0.2595422597997921</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3655306047764275</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3414982874076763</v>
+        <v>-0.308554067198853</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.127545654443173</v>
+        <v>-2.074002245993888</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2775301503180164</v>
+        <v>-0.2647853174928447</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3409911488835318</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3588738844877146</v>
+        <v>-0.3174866257122343</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.075316551960174</v>
+        <v>-2.029687311652788</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2499580573701922</v>
+        <v>-0.2367457408659943</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3153380044704422</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3563806381995743</v>
+        <v>-0.3036872000757913</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.050221178099716</v>
+        <v>-2.010614134950427</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.250982743818159</v>
+        <v>-0.2348931203602234</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2885375540861129</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2905252521834749</v>
+        <v>-0.2267318312162793</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.98741860216938</v>
+        <v>-1.948970824102928</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2639432172629488</v>
+        <v>-0.2485304220271725</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2602086869819322</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.1336474884207992</v>
+        <v>-0.06399242024587988</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.922798821163501</v>
+        <v>-1.881432811646158</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2152635278984825</v>
+        <v>-0.2012783680057259</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2308853268912384</v>
       </c>
       <c r="E84" t="n">
-        <v>0.008832722439339035</v>
+        <v>0.08670889248481187</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.794953053083656</v>
+        <v>-1.76032305839592</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1632217336909179</v>
+        <v>-0.1541884379537732</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2023721823655973</v>
       </c>
       <c r="E85" t="n">
-        <v>0.22999972319242</v>
+        <v>0.2958204807878508</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.604402298258995</v>
+        <v>-1.580158468743161</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1374817990002877</v>
+        <v>-0.1268477258167802</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1758552524885834</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5079069652301481</v>
+        <v>0.5615747211900164</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.431988965769081</v>
+        <v>-1.409584377596487</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05388879150625077</v>
+        <v>-0.04142098604642802</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1515502259700561</v>
       </c>
       <c r="E87" t="n">
-        <v>0.804485222084745</v>
+        <v>0.849262918047507</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.189974081754373</v>
+        <v>-1.180840048793465</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0110316271517961</v>
+        <v>0.01919291629574016</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1285512995005645</v>
       </c>
       <c r="E88" t="n">
-        <v>1.056010329630352</v>
+        <v>1.09169491712936</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.017316776300658</v>
+        <v>-1.006447387258516</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06455299933338338</v>
+        <v>0.06923255818101033</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1057882905949149</v>
       </c>
       <c r="E89" t="n">
-        <v>1.320358970957196</v>
+        <v>1.342388942578921</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7389491336699491</v>
+        <v>-0.749370714272081</v>
       </c>
       <c r="G89" t="n">
-        <v>0.122174691325959</v>
+        <v>0.1231206768178607</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08295695069883885</v>
       </c>
       <c r="E90" t="n">
-        <v>1.556691645944009</v>
+        <v>1.561601011583346</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4564048313008692</v>
+        <v>-0.4772086420271003</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1559531416690717</v>
+        <v>0.1549803978521079</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.06101577186458525</v>
       </c>
       <c r="E91" t="n">
-        <v>1.748953359553524</v>
+        <v>1.744769616729107</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1621514006884334</v>
+        <v>-0.1918830478706821</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1291696323010192</v>
+        <v>0.1230939184927986</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.04121179098168277</v>
       </c>
       <c r="E92" t="n">
-        <v>1.813894240460148</v>
+        <v>1.801401250694385</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04600633202709738</v>
+        <v>0.008207836848182663</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1540186721689932</v>
+        <v>0.1428935050196399</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0256556556563206</v>
       </c>
       <c r="E93" t="n">
-        <v>1.807782324212138</v>
+        <v>1.794283536227863</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2581180007753355</v>
+        <v>0.2188619638900963</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1025592650363098</v>
+        <v>0.09843533493850198</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01642343054538924</v>
       </c>
       <c r="E94" t="n">
-        <v>1.742743854119993</v>
+        <v>1.72687459333904</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4381181054299182</v>
+        <v>0.3968488980885355</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1119766214390518</v>
+        <v>0.1085609999458293</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01327845564616864</v>
       </c>
       <c r="E95" t="n">
-        <v>1.710969130118296</v>
+        <v>1.691344259713919</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5313960525773183</v>
+        <v>0.4921651999980199</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0494754701704441</v>
+        <v>0.04702314837945763</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.01395314046286038</v>
       </c>
       <c r="E96" t="n">
-        <v>1.608239198147486</v>
+        <v>1.583234330386503</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5941773792495175</v>
+        <v>0.5571139510002502</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02685658711703276</v>
+        <v>-0.02735712519760638</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01508683229815605</v>
       </c>
       <c r="E97" t="n">
-        <v>1.562227471193624</v>
+        <v>1.537735733666185</v>
       </c>
       <c r="F97" t="n">
-        <v>0.596388876114945</v>
+        <v>0.5594655355674735</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05093278359644808</v>
+        <v>-0.04872286075014191</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01612868729108147</v>
       </c>
       <c r="E98" t="n">
-        <v>1.449683530001503</v>
+        <v>1.417505857104753</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6120487923527655</v>
+        <v>0.5760871774884087</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1160625467976279</v>
+        <v>-0.1135519862991533</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.01517475966143532</v>
       </c>
       <c r="E99" t="n">
-        <v>1.359270297654871</v>
+        <v>1.332955845984966</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6221445509967881</v>
+        <v>0.5830223057368595</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1183149681602092</v>
+        <v>-0.1148867545140163</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01599610647179998</v>
       </c>
       <c r="E100" t="n">
-        <v>1.26617336270642</v>
+        <v>1.233312565511026</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6295471629242653</v>
+        <v>0.5907727758901441</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1546921240725894</v>
+        <v>-0.1544575952235156</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02070043983696844</v>
       </c>
       <c r="E101" t="n">
-        <v>1.165522709994848</v>
+        <v>1.133812520777124</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5609828900004074</v>
+        <v>0.5279961712753088</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1938694600017635</v>
+        <v>-0.190296436596411</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04074162677399023</v>
       </c>
       <c r="E102" t="n">
-        <v>1.071607285103321</v>
+        <v>1.045122839368315</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5181554037289369</v>
+        <v>0.4904920176720773</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.241806212340976</v>
+        <v>-0.2345688724212354</v>
       </c>
     </row>
   </sheetData>
